--- a/doc/tables/Combined_Reference_Points.xlsx
+++ b/doc/tables/Combined_Reference_Points.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Proxy MSY, mt</t>
   </si>
@@ -71,46 +71,43 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Unfished spawning output (millions of eggs)</t>
-  </si>
-  <si>
     <t>Total Biomass, mt</t>
   </si>
   <si>
     <t>Unfished  Recruitment (1000s of fish)</t>
   </si>
   <si>
-    <t>Spawning Output (2021, millions of eggs)</t>
-  </si>
-  <si>
     <t>Fraction Unfished (2021)</t>
   </si>
   <si>
-    <t>Reference Points Based on SPR50%</t>
-  </si>
-  <si>
-    <t>Southern CA</t>
-  </si>
-  <si>
-    <t>Northern CA</t>
-  </si>
-  <si>
-    <t>Point Conception to Cape Mendocino</t>
-  </si>
-  <si>
-    <t>South of Cape Mendocino</t>
-  </si>
-  <si>
-    <t>Cape Mendocino to California/Oregon border</t>
-  </si>
-  <si>
-    <t>Oregon</t>
-  </si>
-  <si>
-    <t>Washington</t>
-  </si>
-  <si>
-    <t>North of Cape Mendocino</t>
+    <t>So. CA</t>
+  </si>
+  <si>
+    <t>No. CA</t>
+  </si>
+  <si>
+    <t>S of Cape Mend.</t>
+  </si>
+  <si>
+    <t>Pt. Conc. to Cape Mend.</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>WA</t>
+  </si>
+  <si>
+    <t>N of Cape Mend.</t>
+  </si>
+  <si>
+    <t>Cape Mend. to CA/OR border</t>
+  </si>
+  <si>
+    <t>Spawning Output (2021, $10^6$ eggs)</t>
+  </si>
+  <si>
+    <t>Unfished spawning output ($10^6$ eggs)</t>
   </si>
 </sst>
 </file>
@@ -210,7 +207,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -236,12 +233,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -534,46 +525,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="53.53515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="E1" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>25</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B2" s="5">
         <v>977.83399999999995</v>
@@ -602,7 +596,7 @@
     </row>
     <row r="3" spans="1:9" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="5">
         <v>6263.31</v>
@@ -631,7 +625,7 @@
     </row>
     <row r="4" spans="1:9" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A4" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="5">
         <v>809.34299999999996</v>
@@ -660,7 +654,7 @@
     </row>
     <row r="5" spans="1:9" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A5" s="4" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B5" s="5">
         <v>471.178</v>
@@ -689,7 +683,7 @@
     </row>
     <row r="6" spans="1:9" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A6" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B6" s="7">
         <v>0.4818588840232596</v>
@@ -709,79 +703,95 @@
       <c r="I6" s="9"/>
     </row>
     <row r="7" spans="1:9" ht="15.45" x14ac:dyDescent="0.4">
-      <c r="A7" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="12"/>
+      <c r="A7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="5">
+        <v>439.02</v>
+      </c>
+      <c r="C7" s="6">
+        <v>510.928</v>
+      </c>
+      <c r="D7" s="6">
+        <v>488.44716799999998</v>
+      </c>
+      <c r="E7" s="6">
+        <v>927.4671679999999</v>
+      </c>
+      <c r="F7" s="5">
+        <v>22.480831999999999</v>
+      </c>
+      <c r="G7" s="12">
+        <v>13</v>
+      </c>
+      <c r="H7" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="I7" s="6">
+        <v>36.680832000000002</v>
+      </c>
     </row>
     <row r="8" spans="1:9" ht="15.45" x14ac:dyDescent="0.4">
-      <c r="A8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="5">
-        <v>439.02</v>
-      </c>
-      <c r="C8" s="6">
-        <v>510.928</v>
-      </c>
-      <c r="D8" s="6">
-        <v>488.44716799999998</v>
-      </c>
-      <c r="E8" s="6">
-        <v>927.4671679999999</v>
-      </c>
-      <c r="F8" s="5">
-        <v>22.480831999999999</v>
+      <c r="A8" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="13">
+        <v>148.285</v>
+      </c>
+      <c r="C8" s="14">
+        <v>138.99199999999999</v>
+      </c>
+      <c r="D8" s="14">
+        <v>132.876352</v>
+      </c>
+      <c r="E8" s="14">
+        <v>281.16135199999997</v>
+      </c>
+      <c r="F8" s="13">
+        <v>6.1156479999999993</v>
       </c>
       <c r="G8" s="14">
-        <v>13</v>
-      </c>
-      <c r="H8" s="6">
-        <v>1.2</v>
-      </c>
-      <c r="I8" s="6">
-        <v>36.680832000000002</v>
+        <v>7.9</v>
+      </c>
+      <c r="H8" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="I8" s="14">
+        <v>14.815647999999999</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.45" x14ac:dyDescent="0.4">
-      <c r="A9" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="15">
-        <v>148.285</v>
-      </c>
-      <c r="C9" s="16">
-        <v>138.99199999999999</v>
-      </c>
-      <c r="D9" s="16">
-        <v>132.876352</v>
-      </c>
-      <c r="E9" s="16">
-        <v>281.16135199999997</v>
-      </c>
-      <c r="F9" s="15">
-        <v>6.1156479999999993</v>
-      </c>
-      <c r="G9" s="16">
-        <v>7.9</v>
-      </c>
-      <c r="H9" s="16">
-        <v>0.8</v>
-      </c>
-      <c r="I9" s="16">
-        <v>14.815647999999999</v>
+      <c r="A9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="5">
+        <v>210.298</v>
+      </c>
+      <c r="C9" s="6">
+        <v>226.773</v>
+      </c>
+      <c r="D9" s="6">
+        <v>216.79498799999999</v>
+      </c>
+      <c r="E9" s="6">
+        <v>427.09298799999999</v>
+      </c>
+      <c r="F9" s="5">
+        <v>9.9780119999999997</v>
+      </c>
+      <c r="G9" s="6">
+        <v>12.96</v>
+      </c>
+      <c r="H9" s="6">
+        <v>2.69</v>
+      </c>
+      <c r="I9" s="6">
+        <v>25.628012000000002</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A10" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B10" s="5">
         <v>210.298</v>
@@ -802,328 +812,299 @@
         <v>12.96</v>
       </c>
       <c r="H10" s="6">
-        <v>2.69</v>
+        <v>3.26</v>
       </c>
       <c r="I10" s="6">
-        <v>25.628012000000002</v>
+        <v>26.198011999999999</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A11" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B11" s="5">
-        <v>210.298</v>
+        <v>159.364</v>
       </c>
       <c r="C11" s="6">
-        <v>226.773</v>
+        <v>154.226</v>
       </c>
       <c r="D11" s="6">
-        <v>216.79498799999999</v>
+        <v>147.440056</v>
       </c>
       <c r="E11" s="6">
-        <v>427.09298799999999</v>
+        <v>306.804056</v>
       </c>
       <c r="F11" s="5">
-        <v>9.9780119999999997</v>
+        <v>6.7859439999999998</v>
       </c>
       <c r="G11" s="6">
-        <v>12.96</v>
+        <v>13.477</v>
       </c>
       <c r="H11" s="6">
-        <v>3.26</v>
+        <v>0.70799000000000001</v>
       </c>
       <c r="I11" s="6">
-        <v>26.198011999999999</v>
+        <v>20.970934</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A12" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B12" s="5">
-        <v>159.364</v>
+        <v>158.81299999999999</v>
       </c>
       <c r="C12" s="6">
-        <v>154.226</v>
+        <v>157.80000000000001</v>
       </c>
       <c r="D12" s="6">
-        <v>147.440056</v>
+        <v>150.85679999999999</v>
       </c>
       <c r="E12" s="6">
-        <v>306.804056</v>
+        <v>309.66980000000001</v>
       </c>
       <c r="F12" s="5">
-        <v>6.7859439999999998</v>
+        <v>6.9432</v>
       </c>
       <c r="G12" s="6">
-        <v>13.477</v>
+        <v>13.382999999999999</v>
       </c>
       <c r="H12" s="6">
-        <v>0.70799000000000001</v>
+        <v>0.70718000000000003</v>
       </c>
       <c r="I12" s="6">
-        <v>20.970934</v>
+        <v>21.033380000000001</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A13" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B13" s="5">
-        <v>158.81299999999999</v>
+        <v>158.79900000000001</v>
       </c>
       <c r="C13" s="6">
-        <v>157.80000000000001</v>
+        <v>159.48500000000001</v>
       </c>
       <c r="D13" s="6">
-        <v>150.85679999999999</v>
+        <v>152.46766</v>
       </c>
       <c r="E13" s="6">
-        <v>309.66980000000001</v>
+        <v>311.26666</v>
       </c>
       <c r="F13" s="5">
-        <v>6.9432</v>
+        <v>7.0173399999999999</v>
       </c>
       <c r="G13" s="6">
-        <v>13.382999999999999</v>
+        <v>13.163</v>
       </c>
       <c r="H13" s="6">
-        <v>0.70718000000000003</v>
+        <v>0.71043999999999996</v>
       </c>
       <c r="I13" s="6">
-        <v>21.033380000000001</v>
+        <v>20.890779999999999</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A14" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B14" s="5">
-        <v>158.79900000000001</v>
+        <v>159.011</v>
       </c>
       <c r="C14" s="6">
-        <v>159.48500000000001</v>
+        <v>159.85599999999999</v>
       </c>
       <c r="D14" s="6">
-        <v>152.46766</v>
+        <v>152.82233599999998</v>
       </c>
       <c r="E14" s="6">
-        <v>311.26666</v>
+        <v>311.83333599999997</v>
       </c>
       <c r="F14" s="5">
-        <v>7.0173399999999999</v>
+        <v>7.033663999999999</v>
       </c>
       <c r="G14" s="6">
-        <v>13.163</v>
+        <v>12.891</v>
       </c>
       <c r="H14" s="6">
-        <v>0.71043999999999996</v>
+        <v>0.71706999999999999</v>
       </c>
       <c r="I14" s="6">
-        <v>20.890779999999999</v>
+        <v>20.641734</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A15" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B15" s="5">
-        <v>159.011</v>
+        <v>159.28299999999999</v>
       </c>
       <c r="C15" s="6">
-        <v>159.85599999999999</v>
+        <v>159.44499999999999</v>
       </c>
       <c r="D15" s="6">
-        <v>152.82233599999998</v>
+        <v>152.42941999999999</v>
       </c>
       <c r="E15" s="6">
-        <v>311.83333599999997</v>
+        <v>311.71241999999995</v>
       </c>
       <c r="F15" s="5">
-        <v>7.033663999999999</v>
+        <v>7.015579999999999</v>
       </c>
       <c r="G15" s="6">
-        <v>12.891</v>
+        <v>12.601000000000001</v>
       </c>
       <c r="H15" s="6">
-        <v>0.71706999999999999</v>
+        <v>0.72602</v>
       </c>
       <c r="I15" s="6">
-        <v>20.641734</v>
+        <v>20.342599999999997</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A16" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B16" s="5">
-        <v>159.28299999999999</v>
+        <v>159.578</v>
       </c>
       <c r="C16" s="6">
-        <v>159.44499999999999</v>
+        <v>158.66300000000001</v>
       </c>
       <c r="D16" s="6">
-        <v>152.42941999999999</v>
+        <v>151.681828</v>
       </c>
       <c r="E16" s="6">
-        <v>311.71241999999995</v>
+        <v>311.25982799999997</v>
       </c>
       <c r="F16" s="5">
-        <v>7.015579999999999</v>
+        <v>6.9811719999999999</v>
       </c>
       <c r="G16" s="6">
-        <v>12.601000000000001</v>
+        <v>12.31</v>
       </c>
       <c r="H16" s="6">
-        <v>0.72602</v>
+        <v>0.73621999999999999</v>
       </c>
       <c r="I16" s="6">
-        <v>20.342599999999997</v>
+        <v>20.027391999999999</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A17" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B17" s="5">
-        <v>159.578</v>
+        <v>159.9</v>
       </c>
       <c r="C17" s="6">
-        <v>158.66300000000001</v>
+        <v>157.79</v>
       </c>
       <c r="D17" s="6">
-        <v>151.681828</v>
+        <v>150.84724</v>
       </c>
       <c r="E17" s="6">
-        <v>311.25982799999997</v>
+        <v>310.74724000000003</v>
       </c>
       <c r="F17" s="5">
-        <v>6.9811719999999999</v>
+        <v>6.9427599999999989</v>
       </c>
       <c r="G17" s="6">
-        <v>12.31</v>
+        <v>12.028</v>
       </c>
       <c r="H17" s="6">
-        <v>0.73621999999999999</v>
+        <v>0.74678999999999995</v>
       </c>
       <c r="I17" s="6">
-        <v>20.027391999999999</v>
+        <v>19.717549999999999</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A18" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B18" s="5">
-        <v>159.9</v>
+        <v>160.25200000000001</v>
       </c>
       <c r="C18" s="6">
-        <v>157.79</v>
+        <v>156.983</v>
       </c>
       <c r="D18" s="6">
-        <v>150.84724</v>
+        <v>150.075748</v>
       </c>
       <c r="E18" s="6">
-        <v>310.74724000000003</v>
+        <v>310.32774800000004</v>
       </c>
       <c r="F18" s="5">
-        <v>6.9427599999999989</v>
+        <v>6.9072519999999997</v>
       </c>
       <c r="G18" s="6">
-        <v>12.028</v>
+        <v>11.759</v>
       </c>
       <c r="H18" s="6">
-        <v>0.74678999999999995</v>
+        <v>0.75705999999999996</v>
       </c>
       <c r="I18" s="6">
-        <v>19.717549999999999</v>
+        <v>19.423311999999999</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A19" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B19" s="5">
-        <v>160.25200000000001</v>
+        <v>160.63999999999999</v>
       </c>
       <c r="C19" s="6">
-        <v>156.983</v>
+        <v>156.33199999999999</v>
       </c>
       <c r="D19" s="6">
-        <v>150.075748</v>
+        <v>149.45339199999998</v>
       </c>
       <c r="E19" s="6">
-        <v>310.32774800000004</v>
+        <v>310.09339199999999</v>
       </c>
       <c r="F19" s="5">
-        <v>6.9072519999999997</v>
+        <v>6.8786079999999989</v>
       </c>
       <c r="G19" s="6">
-        <v>11.759</v>
+        <v>11.507</v>
       </c>
       <c r="H19" s="6">
-        <v>0.75705999999999996</v>
+        <v>0.76673999999999998</v>
       </c>
       <c r="I19" s="6">
-        <v>19.423311999999999</v>
+        <v>19.152347999999996</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A20" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B20" s="5">
-        <v>160.63999999999999</v>
+        <v>161.06299999999999</v>
       </c>
       <c r="C20" s="6">
-        <v>156.33199999999999</v>
+        <v>155.86600000000001</v>
       </c>
       <c r="D20" s="6">
-        <v>149.45339199999998</v>
+        <v>149.00789600000002</v>
       </c>
       <c r="E20" s="6">
-        <v>310.09339199999999</v>
+        <v>310.070896</v>
       </c>
       <c r="F20" s="5">
-        <v>6.8786079999999989</v>
+        <v>6.858104</v>
       </c>
       <c r="G20" s="6">
-        <v>11.507</v>
+        <v>11.273999999999999</v>
       </c>
       <c r="H20" s="6">
-        <v>0.76673999999999998</v>
+        <v>0.77568999999999999</v>
       </c>
       <c r="I20" s="6">
-        <v>19.152347999999996</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="15.45" x14ac:dyDescent="0.4">
-      <c r="A21" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="5">
-        <v>161.06299999999999</v>
-      </c>
-      <c r="C21" s="6">
-        <v>155.86600000000001</v>
-      </c>
-      <c r="D21" s="6">
-        <v>149.00789600000002</v>
-      </c>
-      <c r="E21" s="6">
-        <v>310.070896</v>
-      </c>
-      <c r="F21" s="5">
-        <v>6.858104</v>
-      </c>
-      <c r="G21" s="6">
-        <v>11.273999999999999</v>
-      </c>
-      <c r="H21" s="6">
-        <v>0.77568999999999999</v>
-      </c>
-      <c r="I21" s="6">
         <v>18.907793999999999</v>
       </c>
     </row>

--- a/doc/tables/Combined_Reference_Points.xlsx
+++ b/doc/tables/Combined_Reference_Points.xlsx
@@ -29,51 +29,12 @@
     <t>Proxy MSY, mt</t>
   </si>
   <si>
-    <t>GMT Projected Catch, 2021, mt</t>
-  </si>
-  <si>
-    <t>GMT Projected Catch, 2022, mt</t>
-  </si>
-  <si>
-    <t>OFL 2023, mt</t>
-  </si>
-  <si>
-    <t>OFL 2024, mt</t>
-  </si>
-  <si>
-    <t>OFL 2025, mt</t>
-  </si>
-  <si>
-    <t>OFL 2026, mt</t>
-  </si>
-  <si>
-    <t>OFL 2027, mt</t>
-  </si>
-  <si>
-    <t>OFL 2028, mt</t>
-  </si>
-  <si>
-    <t>OFL 2029, mt</t>
-  </si>
-  <si>
-    <t>OFL 2030, mt</t>
-  </si>
-  <si>
-    <t>OFL 2031, mt</t>
-  </si>
-  <si>
-    <t>OFL 2032, mt</t>
-  </si>
-  <si>
     <t>Proxy Spawning Output ($10^6$ eggs)</t>
   </si>
   <si>
     <t>Description</t>
   </si>
   <si>
-    <t>Total Biomass, mt</t>
-  </si>
-  <si>
     <t>Unfished  Recruitment (1000s of fish)</t>
   </si>
   <si>
@@ -108,6 +69,45 @@
   </si>
   <si>
     <t>Unfished spawning output ($10^6$ eggs)</t>
+  </si>
+  <si>
+    <t>Total Biomass (mt)</t>
+  </si>
+  <si>
+    <t>GMT Projected Catch, 2021 (mt)</t>
+  </si>
+  <si>
+    <t>OFL 2023 (mt)</t>
+  </si>
+  <si>
+    <t>OFL 2024 (mt)</t>
+  </si>
+  <si>
+    <t>OFL 2025 (mt)</t>
+  </si>
+  <si>
+    <t>OFL 2026 (mt)</t>
+  </si>
+  <si>
+    <t>OFL 2027 (mt)</t>
+  </si>
+  <si>
+    <t>OFL 2028 (mt)</t>
+  </si>
+  <si>
+    <t>OFL 2029 (mt)</t>
+  </si>
+  <si>
+    <t>OFL 2030 (mt)</t>
+  </si>
+  <si>
+    <t>OFL 2031 (mt)</t>
+  </si>
+  <si>
+    <t>OFL 2032 (mt)</t>
+  </si>
+  <si>
+    <t>GMT Projected Catch, 2022 (mt)</t>
   </si>
 </sst>
 </file>
@@ -528,7 +528,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A10" sqref="A10:A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -538,36 +538,36 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B2" s="5">
         <v>977.83399999999995</v>
@@ -625,7 +625,7 @@
     </row>
     <row r="4" spans="1:9" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A4" s="4" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B4" s="5">
         <v>809.34299999999996</v>
@@ -654,7 +654,7 @@
     </row>
     <row r="5" spans="1:9" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A5" s="4" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B5" s="5">
         <v>471.178</v>
@@ -683,7 +683,7 @@
     </row>
     <row r="6" spans="1:9" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A6" s="4" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B6" s="7">
         <v>0.4818588840232596</v>
@@ -704,7 +704,7 @@
     </row>
     <row r="7" spans="1:9" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A7" s="4" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B7" s="5">
         <v>439.02</v>
@@ -762,7 +762,7 @@
     </row>
     <row r="9" spans="1:9" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B9" s="5">
         <v>210.298</v>
@@ -791,7 +791,7 @@
     </row>
     <row r="10" spans="1:9" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A10" s="4" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="B10" s="5">
         <v>210.298</v>
@@ -820,7 +820,7 @@
     </row>
     <row r="11" spans="1:9" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A11" s="4" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B11" s="5">
         <v>159.364</v>
@@ -849,7 +849,7 @@
     </row>
     <row r="12" spans="1:9" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A12" s="4" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B12" s="5">
         <v>158.81299999999999</v>
@@ -878,7 +878,7 @@
     </row>
     <row r="13" spans="1:9" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A13" s="4" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B13" s="5">
         <v>158.79900000000001</v>
@@ -907,7 +907,7 @@
     </row>
     <row r="14" spans="1:9" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A14" s="4" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B14" s="5">
         <v>159.011</v>
@@ -936,7 +936,7 @@
     </row>
     <row r="15" spans="1:9" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A15" s="4" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B15" s="5">
         <v>159.28299999999999</v>
@@ -965,7 +965,7 @@
     </row>
     <row r="16" spans="1:9" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A16" s="4" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B16" s="5">
         <v>159.578</v>
@@ -994,7 +994,7 @@
     </row>
     <row r="17" spans="1:9" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A17" s="4" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B17" s="5">
         <v>159.9</v>
@@ -1023,7 +1023,7 @@
     </row>
     <row r="18" spans="1:9" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A18" s="4" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B18" s="5">
         <v>160.25200000000001</v>
@@ -1052,7 +1052,7 @@
     </row>
     <row r="19" spans="1:9" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A19" s="4" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B19" s="5">
         <v>160.63999999999999</v>
@@ -1081,7 +1081,7 @@
     </row>
     <row r="20" spans="1:9" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A20" s="4" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="B20" s="5">
         <v>161.06299999999999</v>

--- a/doc/tables/Combined_Reference_Points.xlsx
+++ b/doc/tables/Combined_Reference_Points.xlsx
@@ -132,7 +132,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -142,6 +142,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -207,7 +213,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -245,6 +251,8 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -528,12 +536,15 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:A20"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="53.53515625" customWidth="1"/>
+    <col min="2" max="2" width="7.15234375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.3046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.4609375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.45" x14ac:dyDescent="0.4">
@@ -777,6 +788,7 @@
         <v>427.09298799999999</v>
       </c>
       <c r="F9" s="5">
+        <f>C9*0.044</f>
         <v>9.9780119999999997</v>
       </c>
       <c r="G9" s="6">
@@ -786,6 +798,7 @@
         <v>2.69</v>
       </c>
       <c r="I9" s="6">
+        <f>SUM(F9:H9)</f>
         <v>25.628012000000002</v>
       </c>
     </row>
@@ -806,6 +819,7 @@
         <v>427.09298799999999</v>
       </c>
       <c r="F10" s="5">
+        <f t="shared" ref="F10:F20" si="0">C10*0.044</f>
         <v>9.9780119999999997</v>
       </c>
       <c r="G10" s="6">
@@ -815,6 +829,7 @@
         <v>3.26</v>
       </c>
       <c r="I10" s="6">
+        <f t="shared" ref="I10:I20" si="1">SUM(F10:H10)</f>
         <v>26.198011999999999</v>
       </c>
     </row>
@@ -825,17 +840,20 @@
       <c r="B11" s="5">
         <v>159.364</v>
       </c>
-      <c r="C11" s="6">
-        <v>154.226</v>
+      <c r="C11" s="15">
+        <v>154.238</v>
       </c>
       <c r="D11" s="6">
-        <v>147.440056</v>
+        <f>0.956*C11</f>
+        <v>147.451528</v>
       </c>
       <c r="E11" s="6">
-        <v>306.804056</v>
+        <f>B11+D11</f>
+        <v>306.81552799999997</v>
       </c>
       <c r="F11" s="5">
-        <v>6.7859439999999998</v>
+        <f t="shared" si="0"/>
+        <v>6.7864719999999998</v>
       </c>
       <c r="G11" s="6">
         <v>13.477</v>
@@ -844,7 +862,8 @@
         <v>0.70799000000000001</v>
       </c>
       <c r="I11" s="6">
-        <v>20.970934</v>
+        <f t="shared" si="1"/>
+        <v>20.971461999999999</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.45" x14ac:dyDescent="0.4">
@@ -854,17 +873,20 @@
       <c r="B12" s="5">
         <v>158.81299999999999</v>
       </c>
-      <c r="C12" s="6">
-        <v>157.80000000000001</v>
+      <c r="C12" s="15">
+        <v>157.364</v>
       </c>
       <c r="D12" s="6">
-        <v>150.85679999999999</v>
+        <f t="shared" ref="D12:D20" si="2">0.956*C12</f>
+        <v>150.43998400000001</v>
       </c>
       <c r="E12" s="6">
-        <v>309.66980000000001</v>
+        <f t="shared" ref="E12:E20" si="3">B12+D12</f>
+        <v>309.25298399999997</v>
       </c>
       <c r="F12" s="5">
-        <v>6.9432</v>
+        <f t="shared" si="0"/>
+        <v>6.9240159999999999</v>
       </c>
       <c r="G12" s="6">
         <v>13.382999999999999</v>
@@ -873,7 +895,8 @@
         <v>0.70718000000000003</v>
       </c>
       <c r="I12" s="6">
-        <v>21.033380000000001</v>
+        <f t="shared" si="1"/>
+        <v>21.014195999999998</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.45" x14ac:dyDescent="0.4">
@@ -883,17 +906,20 @@
       <c r="B13" s="5">
         <v>158.79900000000001</v>
       </c>
-      <c r="C13" s="6">
-        <v>159.48500000000001</v>
+      <c r="C13" s="15">
+        <v>158.578</v>
       </c>
       <c r="D13" s="6">
-        <v>152.46766</v>
+        <f t="shared" si="2"/>
+        <v>151.60056800000001</v>
       </c>
       <c r="E13" s="6">
-        <v>311.26666</v>
+        <f t="shared" si="3"/>
+        <v>310.39956800000004</v>
       </c>
       <c r="F13" s="5">
-        <v>7.0173399999999999</v>
+        <f t="shared" si="0"/>
+        <v>6.9774319999999994</v>
       </c>
       <c r="G13" s="6">
         <v>13.163</v>
@@ -902,7 +928,8 @@
         <v>0.71043999999999996</v>
       </c>
       <c r="I13" s="6">
-        <v>20.890779999999999</v>
+        <f t="shared" si="1"/>
+        <v>20.850871999999999</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.45" x14ac:dyDescent="0.4">
@@ -912,17 +939,20 @@
       <c r="B14" s="5">
         <v>159.011</v>
       </c>
-      <c r="C14" s="6">
-        <v>159.85599999999999</v>
+      <c r="C14" s="15">
+        <v>158.477</v>
       </c>
       <c r="D14" s="6">
-        <v>152.82233599999998</v>
+        <f t="shared" si="2"/>
+        <v>151.50401199999999</v>
       </c>
       <c r="E14" s="6">
-        <v>311.83333599999997</v>
+        <f t="shared" si="3"/>
+        <v>310.51501199999996</v>
       </c>
       <c r="F14" s="5">
-        <v>7.033663999999999</v>
+        <f t="shared" si="0"/>
+        <v>6.972988</v>
       </c>
       <c r="G14" s="6">
         <v>12.891</v>
@@ -931,7 +961,8 @@
         <v>0.71706999999999999</v>
       </c>
       <c r="I14" s="6">
-        <v>20.641734</v>
+        <f t="shared" si="1"/>
+        <v>20.581057999999999</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.45" x14ac:dyDescent="0.4">
@@ -941,17 +972,20 @@
       <c r="B15" s="5">
         <v>159.28299999999999</v>
       </c>
-      <c r="C15" s="6">
-        <v>159.44499999999999</v>
+      <c r="C15" s="15">
+        <v>157.608</v>
       </c>
       <c r="D15" s="6">
-        <v>152.42941999999999</v>
+        <f t="shared" si="2"/>
+        <v>150.673248</v>
       </c>
       <c r="E15" s="6">
-        <v>311.71241999999995</v>
+        <f t="shared" si="3"/>
+        <v>309.95624799999996</v>
       </c>
       <c r="F15" s="5">
-        <v>7.015579999999999</v>
+        <f t="shared" si="0"/>
+        <v>6.9347519999999996</v>
       </c>
       <c r="G15" s="6">
         <v>12.601000000000001</v>
@@ -960,7 +994,8 @@
         <v>0.72602</v>
       </c>
       <c r="I15" s="6">
-        <v>20.342599999999997</v>
+        <f t="shared" si="1"/>
+        <v>20.261772000000001</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15.45" x14ac:dyDescent="0.4">
@@ -970,17 +1005,20 @@
       <c r="B16" s="5">
         <v>159.578</v>
       </c>
-      <c r="C16" s="6">
-        <v>158.66300000000001</v>
+      <c r="C16" s="15">
+        <v>156.39699999999999</v>
       </c>
       <c r="D16" s="6">
-        <v>151.681828</v>
+        <f t="shared" si="2"/>
+        <v>149.51553199999998</v>
       </c>
       <c r="E16" s="6">
-        <v>311.25982799999997</v>
+        <f t="shared" si="3"/>
+        <v>309.09353199999998</v>
       </c>
       <c r="F16" s="5">
-        <v>6.9811719999999999</v>
+        <f t="shared" si="0"/>
+        <v>6.881467999999999</v>
       </c>
       <c r="G16" s="6">
         <v>12.31</v>
@@ -989,7 +1027,8 @@
         <v>0.73621999999999999</v>
       </c>
       <c r="I16" s="6">
-        <v>20.027391999999999</v>
+        <f t="shared" si="1"/>
+        <v>19.927688</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15.45" x14ac:dyDescent="0.4">
@@ -999,17 +1038,20 @@
       <c r="B17" s="5">
         <v>159.9</v>
       </c>
-      <c r="C17" s="6">
-        <v>157.79</v>
+      <c r="C17" s="15">
+        <v>155.11500000000001</v>
       </c>
       <c r="D17" s="6">
-        <v>150.84724</v>
+        <f t="shared" si="2"/>
+        <v>148.28994</v>
       </c>
       <c r="E17" s="6">
-        <v>310.74724000000003</v>
+        <f t="shared" si="3"/>
+        <v>308.18993999999998</v>
       </c>
       <c r="F17" s="5">
-        <v>6.9427599999999989</v>
+        <f t="shared" si="0"/>
+        <v>6.8250599999999997</v>
       </c>
       <c r="G17" s="6">
         <v>12.028</v>
@@ -1018,7 +1060,8 @@
         <v>0.74678999999999995</v>
       </c>
       <c r="I17" s="6">
-        <v>19.717549999999999</v>
+        <f t="shared" si="1"/>
+        <v>19.59985</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15.45" x14ac:dyDescent="0.4">
@@ -1028,17 +1071,20 @@
       <c r="B18" s="5">
         <v>160.25200000000001</v>
       </c>
-      <c r="C18" s="6">
-        <v>156.983</v>
+      <c r="C18" s="15">
+        <v>153.923</v>
       </c>
       <c r="D18" s="6">
-        <v>150.075748</v>
+        <f t="shared" si="2"/>
+        <v>147.15038799999999</v>
       </c>
       <c r="E18" s="6">
-        <v>310.32774800000004</v>
+        <f t="shared" si="3"/>
+        <v>307.40238799999997</v>
       </c>
       <c r="F18" s="5">
-        <v>6.9072519999999997</v>
+        <f t="shared" si="0"/>
+        <v>6.7726119999999996</v>
       </c>
       <c r="G18" s="6">
         <v>11.759</v>
@@ -1047,7 +1093,8 @@
         <v>0.75705999999999996</v>
       </c>
       <c r="I18" s="6">
-        <v>19.423311999999999</v>
+        <f t="shared" si="1"/>
+        <v>19.288671999999998</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15.45" x14ac:dyDescent="0.4">
@@ -1057,17 +1104,20 @@
       <c r="B19" s="5">
         <v>160.63999999999999</v>
       </c>
-      <c r="C19" s="6">
-        <v>156.33199999999999</v>
+      <c r="C19" s="15">
+        <v>152.90799999999999</v>
       </c>
       <c r="D19" s="6">
-        <v>149.45339199999998</v>
+        <f t="shared" si="2"/>
+        <v>146.18004799999997</v>
       </c>
       <c r="E19" s="6">
-        <v>310.09339199999999</v>
+        <f t="shared" si="3"/>
+        <v>306.82004799999993</v>
       </c>
       <c r="F19" s="5">
-        <v>6.8786079999999989</v>
+        <f t="shared" si="0"/>
+        <v>6.7279519999999993</v>
       </c>
       <c r="G19" s="6">
         <v>11.507</v>
@@ -1076,7 +1126,8 @@
         <v>0.76673999999999998</v>
       </c>
       <c r="I19" s="6">
-        <v>19.152347999999996</v>
+        <f t="shared" si="1"/>
+        <v>19.001691999999998</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15.45" x14ac:dyDescent="0.4">
@@ -1086,17 +1137,20 @@
       <c r="B20" s="5">
         <v>161.06299999999999</v>
       </c>
-      <c r="C20" s="6">
-        <v>155.86600000000001</v>
+      <c r="C20" s="16">
+        <v>152.083</v>
       </c>
       <c r="D20" s="6">
-        <v>149.00789600000002</v>
+        <f t="shared" si="2"/>
+        <v>145.39134799999999</v>
       </c>
       <c r="E20" s="6">
-        <v>310.070896</v>
+        <f t="shared" si="3"/>
+        <v>306.45434799999998</v>
       </c>
       <c r="F20" s="5">
-        <v>6.858104</v>
+        <f t="shared" si="0"/>
+        <v>6.6916519999999995</v>
       </c>
       <c r="G20" s="6">
         <v>11.273999999999999</v>
@@ -1105,7 +1159,8 @@
         <v>0.77568999999999999</v>
       </c>
       <c r="I20" s="6">
-        <v>18.907793999999999</v>
+        <f t="shared" si="1"/>
+        <v>18.741342</v>
       </c>
     </row>
   </sheetData>
